--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3620462.449878525</v>
+        <v>3617918.227942497</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.362041940669283</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>175.6809662669691</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>11.36529914368128</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>35.36671903911516</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550655</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>26.91122581714234</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>176.016653834323</v>
       </c>
     </row>
     <row r="4">
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.4337583055308</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>187.5255871663201</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="W4" t="n">
         <v>187.5255871663201</v>
       </c>
       <c r="X4" t="n">
-        <v>30.40964718213321</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>173.9044986484604</v>
+        <v>12.28773869504416</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>140.3157839734241</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>91.22469481809453</v>
       </c>
     </row>
     <row r="6">
@@ -975,16 +975,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>33.85559031833735</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
-        <v>122.6788417609487</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1038,10 +1038,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>60.63040113948531</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>14.96483578850866</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>172.6321500621333</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>110.2735063589422</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.8302881234605</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>76.60428439787265</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.895202352076</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0678569565025</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>248.3610830621552</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1218,16 +1218,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>135.4855929438821</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29180769719216</v>
+        <v>94.29180769719214</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>43.88187878649437</v>
+        <v>137.1730436088543</v>
       </c>
       <c r="T9" t="n">
         <v>192.675990284458</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>209.4231280264277</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1294,16 +1294,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4333581046933</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>107.2570757305866</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>53.42877878309321</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.290298616738</v>
       </c>
       <c r="U10" t="n">
-        <v>142.0354524207638</v>
+        <v>286.2340681971946</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>60.42721558712918</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881266</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>29.249233057517</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560513</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833819</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710053</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>141.6930519056939</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>78.91051008678096</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>55.30088041042195</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174121</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>119.8099036979372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5908209162928</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1.79977260571659</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206815</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>144.4286493356917</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3509,13 +3509,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G38" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>161.3373146097481</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>351.3361714764008</v>
+        <v>199.403069204296</v>
       </c>
       <c r="C2" t="n">
-        <v>351.3361714764008</v>
+        <v>199.403069204296</v>
       </c>
       <c r="D2" t="n">
-        <v>161.9163864599159</v>
+        <v>199.403069204296</v>
       </c>
       <c r="E2" t="n">
-        <v>161.9163864599159</v>
+        <v>199.403069204296</v>
       </c>
       <c r="F2" t="n">
-        <v>154.9708857107124</v>
+        <v>192.4575684550925</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678489</v>
@@ -4346,34 +4346,34 @@
         <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.461172602027</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201477</v>
+        <v>738.6222485201479</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201477</v>
+        <v>578.242639237266</v>
       </c>
       <c r="T2" t="n">
-        <v>738.6222485201477</v>
+        <v>388.822854220781</v>
       </c>
       <c r="U2" t="n">
-        <v>738.6222485201477</v>
+        <v>199.403069204296</v>
       </c>
       <c r="V2" t="n">
-        <v>738.6222485201477</v>
+        <v>199.403069204296</v>
       </c>
       <c r="W2" t="n">
-        <v>738.6222485201477</v>
+        <v>199.403069204296</v>
       </c>
       <c r="X2" t="n">
-        <v>549.2024635036628</v>
+        <v>199.403069204296</v>
       </c>
       <c r="Y2" t="n">
-        <v>359.7826784871779</v>
+        <v>199.403069204296</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>554.7039552642605</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C3" t="n">
-        <v>554.7039552642605</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D3" t="n">
-        <v>405.7695456030092</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E3" t="n">
-        <v>246.5320905975537</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F3" t="n">
-        <v>99.99753262443866</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G3" t="n">
-        <v>99.99753262443866</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
         <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
         <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476353</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017067</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843284</v>
+        <v>722.9192922843287</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843284</v>
+        <v>571.6362168389251</v>
       </c>
       <c r="T3" t="n">
-        <v>722.9192922843284</v>
+        <v>571.6362168389251</v>
       </c>
       <c r="U3" t="n">
-        <v>722.9192922843284</v>
+        <v>571.6362168389251</v>
       </c>
       <c r="V3" t="n">
-        <v>722.9192922843284</v>
+        <v>571.6362168389251</v>
       </c>
       <c r="W3" t="n">
-        <v>722.9192922843284</v>
+        <v>382.2164318224401</v>
       </c>
       <c r="X3" t="n">
-        <v>722.9192922843284</v>
+        <v>192.7966468059551</v>
       </c>
       <c r="Y3" t="n">
-        <v>722.9192922843284</v>
+        <v>15.00204697330561</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>340.5459632968224</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C4" t="n">
-        <v>340.5459632968224</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D4" t="n">
-        <v>340.5459632968224</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E4" t="n">
-        <v>340.5459632968224</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F4" t="n">
-        <v>193.6560157989121</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G4" t="n">
-        <v>193.6560157989121</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
-        <v>43.17590452428121</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>216.0634826394163</v>
+        <v>279.6026869745585</v>
       </c>
       <c r="M4" t="n">
-        <v>401.7138139340732</v>
+        <v>465.2530182692154</v>
       </c>
       <c r="N4" t="n">
-        <v>587.3641452287301</v>
+        <v>633.0454302264761</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652803</v>
+        <v>634.3723839608027</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S4" t="n">
-        <v>560.6825636487954</v>
+        <v>560.6825636487955</v>
       </c>
       <c r="T4" t="n">
-        <v>560.6825636487954</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="U4" t="n">
-        <v>560.6825636487954</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="V4" t="n">
-        <v>560.6825636487954</v>
+        <v>204.4218319897906</v>
       </c>
       <c r="W4" t="n">
-        <v>371.2627786323105</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="X4" t="n">
-        <v>340.5459632968224</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="Y4" t="n">
-        <v>340.5459632968224</v>
+        <v>15.00204697330561</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>216.3358215576816</v>
+        <v>438.8748216777276</v>
       </c>
       <c r="C5" t="n">
-        <v>216.3358215576816</v>
+        <v>438.8748216777276</v>
       </c>
       <c r="D5" t="n">
-        <v>216.3358215576816</v>
+        <v>438.8748216777276</v>
       </c>
       <c r="E5" t="n">
-        <v>216.3358215576816</v>
+        <v>53.08656907948338</v>
       </c>
       <c r="F5" t="n">
-        <v>209.3903208084781</v>
+        <v>46.14106833027991</v>
       </c>
       <c r="G5" t="n">
         <v>33.72921106255854</v>
@@ -4595,22 +4595,22 @@
         <v>1544.727438003256</v>
       </c>
       <c r="T5" t="n">
-        <v>1332.709567064687</v>
+        <v>1544.727438003256</v>
       </c>
       <c r="U5" t="n">
-        <v>1332.709567064687</v>
+        <v>1291.086576384843</v>
       </c>
       <c r="V5" t="n">
-        <v>1332.709567064687</v>
+        <v>1291.086576384843</v>
       </c>
       <c r="W5" t="n">
-        <v>979.9409117945731</v>
+        <v>1291.086576384843</v>
       </c>
       <c r="X5" t="n">
-        <v>606.4751535334933</v>
+        <v>917.620818123763</v>
       </c>
       <c r="Y5" t="n">
-        <v>216.3358215576816</v>
+        <v>825.4746617418493</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>697.0862289616258</v>
+        <v>192.966666068014</v>
       </c>
       <c r="C6" t="n">
-        <v>522.6331996804988</v>
+        <v>192.966666068014</v>
       </c>
       <c r="D6" t="n">
-        <v>373.6987900192476</v>
+        <v>192.966666068014</v>
       </c>
       <c r="E6" t="n">
-        <v>214.4613350137921</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="F6" t="n">
-        <v>67.92677704067708</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="G6" t="n">
-        <v>67.92677704067708</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H6" t="n">
-        <v>67.92677704067708</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I6" t="n">
         <v>33.72921106255854</v>
       </c>
       <c r="J6" t="n">
-        <v>183.8748628766941</v>
+        <v>59.04473788968937</v>
       </c>
       <c r="K6" t="n">
-        <v>305.2979551469729</v>
+        <v>442.288414802421</v>
       </c>
       <c r="L6" t="n">
-        <v>514.8888283998035</v>
+        <v>660.7750882322384</v>
       </c>
       <c r="M6" t="n">
-        <v>778.8283598952908</v>
+        <v>924.7146197277257</v>
       </c>
       <c r="N6" t="n">
-        <v>1064.162230328624</v>
+        <v>1210.048490161058</v>
       </c>
       <c r="O6" t="n">
         <v>1448.853441912517</v>
@@ -4671,25 +4671,25 @@
         <v>1686.460553127927</v>
       </c>
       <c r="S6" t="n">
-        <v>1686.460553127927</v>
+        <v>1543.309735648992</v>
       </c>
       <c r="T6" t="n">
-        <v>1686.460553127927</v>
+        <v>1347.691013115832</v>
       </c>
       <c r="U6" t="n">
-        <v>1562.542531147171</v>
+        <v>1119.574596246804</v>
       </c>
       <c r="V6" t="n">
-        <v>1327.390422915428</v>
+        <v>884.4224880150612</v>
       </c>
       <c r="W6" t="n">
-        <v>1073.153066187227</v>
+        <v>630.1851312868596</v>
       </c>
       <c r="X6" t="n">
-        <v>865.3015659816938</v>
+        <v>568.942301853036</v>
       </c>
       <c r="Y6" t="n">
-        <v>865.3015659816938</v>
+        <v>361.1820030880821</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>647.5850744831047</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="C7" t="n">
-        <v>478.6488915551978</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="D7" t="n">
-        <v>328.532252142862</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="E7" t="n">
-        <v>180.6191585604689</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="F7" t="n">
         <v>33.72921106255854</v>
@@ -4747,28 +4747,28 @@
         <v>1293.13166510086</v>
       </c>
       <c r="R7" t="n">
-        <v>1293.13166510086</v>
+        <v>1175.471604442305</v>
       </c>
       <c r="S7" t="n">
-        <v>1293.13166510086</v>
+        <v>972.9993576026061</v>
       </c>
       <c r="T7" t="n">
-        <v>1293.13166510086</v>
+        <v>972.9993576026061</v>
       </c>
       <c r="U7" t="n">
-        <v>1293.13166510086</v>
+        <v>972.9993576026061</v>
       </c>
       <c r="V7" t="n">
-        <v>1293.13166510086</v>
+        <v>718.3148693967192</v>
       </c>
       <c r="W7" t="n">
-        <v>1278.015669354892</v>
+        <v>428.8976993597586</v>
       </c>
       <c r="X7" t="n">
-        <v>1050.026118456874</v>
+        <v>254.5217902060886</v>
       </c>
       <c r="Y7" t="n">
-        <v>829.2335393133444</v>
+        <v>33.72921106255854</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1580.307705445926</v>
+        <v>637.8045310672633</v>
       </c>
       <c r="C8" t="n">
-        <v>1211.345188505514</v>
+        <v>526.4171509067156</v>
       </c>
       <c r="D8" t="n">
-        <v>853.0794898987635</v>
+        <v>526.4171509067156</v>
       </c>
       <c r="E8" t="n">
-        <v>467.2912373005192</v>
+        <v>140.6288983084714</v>
       </c>
       <c r="F8" t="n">
-        <v>56.30533251091166</v>
+        <v>133.6833975592679</v>
       </c>
       <c r="G8" t="n">
-        <v>44.35554652761822</v>
+        <v>121.7336115759745</v>
       </c>
       <c r="H8" t="n">
-        <v>44.35554652761822</v>
+        <v>121.7336115759745</v>
       </c>
       <c r="I8" t="n">
-        <v>44.35554652761822</v>
+        <v>44.35554652761828</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8927045872704</v>
+        <v>156.8927045872711</v>
       </c>
       <c r="K8" t="n">
-        <v>376.2952505158992</v>
+        <v>376.2952505159002</v>
       </c>
       <c r="L8" t="n">
-        <v>685.3852714985267</v>
+        <v>685.3852714985283</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.976912556942</v>
+        <v>1060.976912556944</v>
       </c>
       <c r="N8" t="n">
-        <v>1447.259827415486</v>
+        <v>1447.259827415489</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.680568975107</v>
+        <v>1798.68056897511</v>
       </c>
       <c r="P8" t="n">
-        <v>2064.109040631085</v>
+        <v>2064.109040631088</v>
       </c>
       <c r="Q8" t="n">
-        <v>2215.262022208123</v>
+        <v>2215.262022208126</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.777326380911</v>
+        <v>2217.777326380914</v>
       </c>
       <c r="S8" t="n">
-        <v>2217.777326380911</v>
+        <v>2217.777326380914</v>
       </c>
       <c r="T8" t="n">
-        <v>2217.777326380911</v>
+        <v>2007.782172489928</v>
       </c>
       <c r="U8" t="n">
-        <v>2217.777326380911</v>
+        <v>1754.178276574269</v>
       </c>
       <c r="V8" t="n">
-        <v>2217.777326380911</v>
+        <v>1754.178276574269</v>
       </c>
       <c r="W8" t="n">
-        <v>2217.777326380911</v>
+        <v>1401.409621304155</v>
       </c>
       <c r="X8" t="n">
-        <v>2217.777326380911</v>
+        <v>1027.943863043075</v>
       </c>
       <c r="Y8" t="n">
-        <v>1966.907545510047</v>
+        <v>637.8045310672633</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>905.6133829345007</v>
+        <v>599.8413699559302</v>
       </c>
       <c r="C9" t="n">
-        <v>731.1603536533737</v>
+        <v>425.3883406748031</v>
       </c>
       <c r="D9" t="n">
-        <v>582.2259439921224</v>
+        <v>276.4539310135519</v>
       </c>
       <c r="E9" t="n">
-        <v>422.9884889866669</v>
+        <v>276.4539310135519</v>
       </c>
       <c r="F9" t="n">
-        <v>276.4539310135518</v>
+        <v>276.4539310135519</v>
       </c>
       <c r="G9" t="n">
-        <v>139.5997967268022</v>
+        <v>139.5997967268023</v>
       </c>
       <c r="H9" t="n">
-        <v>44.35554652761822</v>
+        <v>44.35554652761828</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35554652761822</v>
+        <v>44.35554652761828</v>
       </c>
       <c r="J9" t="n">
-        <v>92.56405995424055</v>
+        <v>92.56405995424078</v>
       </c>
       <c r="K9" t="n">
-        <v>514.9354973067605</v>
+        <v>253.1149126643081</v>
       </c>
       <c r="L9" t="n">
-        <v>777.1384731364366</v>
+        <v>802.0148009435843</v>
       </c>
       <c r="M9" t="n">
-        <v>1102.473846786542</v>
+        <v>1127.35017459369</v>
       </c>
       <c r="N9" t="n">
-        <v>1450.828524627295</v>
+        <v>1591.467798350896</v>
       </c>
       <c r="O9" t="n">
-        <v>1747.285203042447</v>
+        <v>1887.924476766048</v>
       </c>
       <c r="P9" t="n">
-        <v>2121.568509855267</v>
+        <v>2106.524031033377</v>
       </c>
       <c r="Q9" t="n">
-        <v>2217.777326380911</v>
+        <v>2202.732847559021</v>
       </c>
       <c r="R9" t="n">
-        <v>2217.777326380911</v>
+        <v>2217.777326380914</v>
       </c>
       <c r="S9" t="n">
-        <v>2173.452196293543</v>
+        <v>2079.21869647298</v>
       </c>
       <c r="T9" t="n">
-        <v>1978.829983885</v>
+        <v>1884.596484064437</v>
       </c>
       <c r="U9" t="n">
-        <v>1978.829983885</v>
+        <v>1673.057970906429</v>
       </c>
       <c r="V9" t="n">
-        <v>1743.677875653257</v>
+        <v>1437.905862674686</v>
       </c>
       <c r="W9" t="n">
-        <v>1489.440518925055</v>
+        <v>1183.668505946485</v>
       </c>
       <c r="X9" t="n">
-        <v>1281.589018719523</v>
+        <v>975.817005740952</v>
       </c>
       <c r="Y9" t="n">
-        <v>1073.828719954569</v>
+        <v>768.0567069759982</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>658.2114099481644</v>
+        <v>381.4062325915791</v>
       </c>
       <c r="C10" t="n">
-        <v>489.2752270202575</v>
+        <v>212.4700496636721</v>
       </c>
       <c r="D10" t="n">
-        <v>339.1585876079217</v>
+        <v>212.4700496636721</v>
       </c>
       <c r="E10" t="n">
-        <v>191.2454940255286</v>
+        <v>212.4700496636721</v>
       </c>
       <c r="F10" t="n">
-        <v>44.35554652761822</v>
+        <v>212.4700496636721</v>
       </c>
       <c r="G10" t="n">
-        <v>44.35554652761822</v>
+        <v>44.35554652761828</v>
       </c>
       <c r="H10" t="n">
-        <v>44.35554652761822</v>
+        <v>44.35554652761828</v>
       </c>
       <c r="I10" t="n">
-        <v>44.35554652761822</v>
+        <v>44.35554652761828</v>
       </c>
       <c r="J10" t="n">
-        <v>60.95254262692009</v>
+        <v>60.95254262692025</v>
       </c>
       <c r="K10" t="n">
-        <v>218.0633423274027</v>
+        <v>218.063342327403</v>
       </c>
       <c r="L10" t="n">
-        <v>474.637509191843</v>
+        <v>474.6375091918436</v>
       </c>
       <c r="M10" t="n">
-        <v>755.5481168921701</v>
+        <v>755.548116892171</v>
       </c>
       <c r="N10" t="n">
-        <v>1035.213914629317</v>
+        <v>1035.213914629318</v>
       </c>
       <c r="O10" t="n">
-        <v>1277.514248546129</v>
+        <v>1277.51424854613</v>
       </c>
       <c r="P10" t="n">
-        <v>1461.323360659238</v>
+        <v>1461.323360659239</v>
       </c>
       <c r="Q10" t="n">
-        <v>1505.148182155966</v>
+        <v>1505.148182155967</v>
       </c>
       <c r="R10" t="n">
-        <v>1505.148182155966</v>
+        <v>1396.807701620021</v>
       </c>
       <c r="S10" t="n">
-        <v>1505.148182155966</v>
+        <v>1342.839238202755</v>
       </c>
       <c r="T10" t="n">
-        <v>1505.148182155966</v>
+        <v>1119.313684044434</v>
       </c>
       <c r="U10" t="n">
-        <v>1361.678028195599</v>
+        <v>830.1883626331265</v>
       </c>
       <c r="V10" t="n">
-        <v>1106.993539989712</v>
+        <v>830.1883626331265</v>
       </c>
       <c r="W10" t="n">
-        <v>1106.993539989712</v>
+        <v>830.1883626331265</v>
       </c>
       <c r="X10" t="n">
-        <v>879.0039890916945</v>
+        <v>602.1988117351092</v>
       </c>
       <c r="Y10" t="n">
-        <v>658.2114099481644</v>
+        <v>381.4062325915791</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5115,25 +5115,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5267,49 +5267,49 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>352.5519571452619</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>949.9304447718135</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5504,58 +5504,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>634.5603720565533</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5653,31 +5653,31 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611463</v>
@@ -5744,58 +5744,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561145</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561145</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718729</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998425</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1307.627092998425</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>695.50206557031</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>526.5658826424032</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5996,10 +5996,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,31 +6008,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,22 +6060,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>639.6425904082686</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6215,52 +6215,52 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852888</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,28 +6482,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
@@ -6692,58 +6692,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6926,61 +6926,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="36">
@@ -7002,28 +7002,28 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7151,31 +7151,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7184,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7403,16 +7403,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,19 +7421,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7628,7 +7628,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
@@ -7640,37 +7640,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
         <v>4606.285157492578</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273906</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>692.9625378792909</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1320.560501433898</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1872.470231673185</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2529.355041543136</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>42.5627518647109</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8146,13 +8146,13 @@
         <v>171.4142040457085</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711117</v>
+        <v>145.8220995101055</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>8.985656744431139</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>147.359858416601</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8532,28 +8532,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>289.5928408581816</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>116.9322686024768</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>157.2563157025174</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.32522655688322</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>117.1847295890522</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823098</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>6.922421112518464</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.5310997715154</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.24115926564446</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,16 +25081,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>2.005313310877455</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
   </sheetData>
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>659136.0469822759</v>
+        <v>659136.0469822758</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>659136.0469822758</v>
+        <v>659136.0469822759</v>
       </c>
     </row>
     <row r="14">
@@ -26314,16 +26314,16 @@
         <v>779989.6813710687</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.681371069</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055063</v>
       </c>
       <c r="G2" t="n">
         <v>766789.2697055059</v>
@@ -26335,13 +26335,13 @@
         <v>766789.2697055059</v>
       </c>
       <c r="J2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="K2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="L2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.269705506</v>
       </c>
       <c r="M2" t="n">
         <v>766789.2697055059</v>
@@ -26353,7 +26353,7 @@
         <v>766789.2697055058</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>259123.8056778326</v>
       </c>
       <c r="D3" t="n">
-        <v>138712.7919296895</v>
+        <v>138712.7919296905</v>
       </c>
       <c r="E3" t="n">
-        <v>589678.7921745759</v>
+        <v>589678.7921745749</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854468</v>
       </c>
       <c r="K3" t="n">
-        <v>60247.15959153579</v>
+        <v>60247.15959153558</v>
       </c>
       <c r="L3" t="n">
-        <v>33617.8733648428</v>
+        <v>33617.87336484296</v>
       </c>
       <c r="M3" t="n">
-        <v>154073.8510167276</v>
+        <v>154073.8510167274</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>209253.9124355573</v>
       </c>
       <c r="D4" t="n">
-        <v>170385.5244296191</v>
+        <v>170385.5244296188</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
+        <v>14216.75207685514</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14216.75207685515</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14216.75207685515</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14216.75207685512</v>
+      </c>
+      <c r="J4" t="n">
+        <v>14216.75207685509</v>
+      </c>
+      <c r="K4" t="n">
         <v>14216.75207685511</v>
       </c>
-      <c r="G4" t="n">
+      <c r="L4" t="n">
+        <v>14216.75207685509</v>
+      </c>
+      <c r="M4" t="n">
+        <v>14216.75207685513</v>
+      </c>
+      <c r="N4" t="n">
         <v>14216.75207685507</v>
       </c>
-      <c r="H4" t="n">
+      <c r="O4" t="n">
+        <v>14216.75207685505</v>
+      </c>
+      <c r="P4" t="n">
         <v>14216.75207685507</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14216.75207685505</v>
-      </c>
-      <c r="J4" t="n">
-        <v>14216.75207685505</v>
-      </c>
-      <c r="K4" t="n">
-        <v>14216.75207685505</v>
-      </c>
-      <c r="L4" t="n">
-        <v>14216.75207685499</v>
-      </c>
-      <c r="M4" t="n">
-        <v>14216.75207685507</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14216.75207685503</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14216.75207685501</v>
-      </c>
-      <c r="P4" t="n">
-        <v>14216.75207685501</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>86168.04029969302</v>
+        <v>86168.04029969306</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-146522.1982245969</v>
       </c>
       <c r="C6" t="n">
-        <v>236000.5779984872</v>
+        <v>236000.5779984868</v>
       </c>
       <c r="D6" t="n">
-        <v>384723.3247120673</v>
+        <v>384723.3247120667</v>
       </c>
       <c r="E6" t="n">
-        <v>61771.19563016803</v>
+        <v>61736.45770473315</v>
       </c>
       <c r="F6" t="n">
-        <v>651449.9878047439</v>
+        <v>651415.2498793085</v>
       </c>
       <c r="G6" t="n">
-        <v>651449.9878047438</v>
+        <v>651415.249879308</v>
       </c>
       <c r="H6" t="n">
-        <v>651449.9878047438</v>
+        <v>651415.2498793083</v>
       </c>
       <c r="I6" t="n">
-        <v>651449.9878047439</v>
+        <v>651415.2498793077</v>
       </c>
       <c r="J6" t="n">
-        <v>602385.0430761991</v>
+        <v>602350.3051507632</v>
       </c>
       <c r="K6" t="n">
-        <v>591202.828213208</v>
+        <v>591168.0902877725</v>
       </c>
       <c r="L6" t="n">
-        <v>617832.1144399007</v>
+        <v>617797.3765144653</v>
       </c>
       <c r="M6" t="n">
-        <v>497376.1367880161</v>
+        <v>497341.3988625806</v>
       </c>
       <c r="N6" t="n">
-        <v>651449.9878047437</v>
+        <v>651415.249879308</v>
       </c>
       <c r="O6" t="n">
-        <v>651449.9878047437</v>
+        <v>651415.249879308</v>
       </c>
       <c r="P6" t="n">
-        <v>651449.9878047439</v>
+        <v>651415.2498793082</v>
       </c>
     </row>
   </sheetData>
@@ -26707,19 +26707,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26741,7 +26741,7 @@
         <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>863.7717861790444</v>
+        <v>863.7717861790452</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26753,7 +26753,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>554.4443315952278</v>
+        <v>554.4443315952285</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26817,19 +26817,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>201.5110155847052</v>
       </c>
       <c r="D3" t="n">
-        <v>113.7908296814344</v>
+        <v>113.7908296814352</v>
       </c>
       <c r="E3" t="n">
-        <v>504.2037141626294</v>
+        <v>504.2037141626286</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,16 +26975,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27015,13 +27015,13 @@
         <v>234.0895511156617</v>
       </c>
       <c r="D4" t="n">
-        <v>132.829193313246</v>
+        <v>132.8291933132467</v>
       </c>
       <c r="E4" t="n">
-        <v>618.2639565044205</v>
+        <v>618.2639565044199</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>234.0895511156617</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132462</v>
+        <v>132.8291933132467</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044203</v>
+        <v>618.2639565044196</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>234.0895511156617</v>
       </c>
       <c r="L4" t="n">
-        <v>132.829193313246</v>
+        <v>132.8291933132467</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044205</v>
+        <v>618.2639565044199</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>374.3717997228113</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543629</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>237.416866963089</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988665</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871021</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.205513512149</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897335</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>65.47503831162453</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920012</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459948</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715735</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>29.66604194298137</v>
       </c>
     </row>
     <row r="4">
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.4337583055308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,22 +27585,22 @@
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>19.25466862917617</v>
+        <v>19.25466862917611</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>36.19408632377997</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>86.96510614773325</v>
       </c>
       <c r="W4" t="n">
-        <v>98.99741117027094</v>
+        <v>98.99741117027088</v>
       </c>
       <c r="X4" t="n">
-        <v>195.300008206904</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>238.3832400465838</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>308.5974454495113</v>
       </c>
       <c r="I5" t="n">
-        <v>94.24014755885167</v>
+        <v>94.24014755885166</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>295.0132438379591</v>
       </c>
     </row>
     <row r="6">
@@ -27695,16 +27695,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.7303505775365</v>
@@ -27713,7 +27713,7 @@
         <v>96.65565115906497</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.85559031833734</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,13 +27743,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.7193093041456</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6625353078282</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>103.1564109393896</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27758,10 +27758,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>145.1425840639922</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.6385546828073</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>222.1670476323163</v>
@@ -27831,13 +27831,13 @@
         <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>271.5581625480824</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>53.07750532690386</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>254.9993854120654</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9125797832802</v>
+        <v>303.9125797832801</v>
       </c>
       <c r="I8" t="n">
-        <v>76.60428439787279</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.8916290734615</v>
+        <v>129.8916290734614</v>
       </c>
       <c r="T8" t="n">
-        <v>207.895202352076</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0678569565025</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>137.8768555938983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27938,10 +27938,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>25.42862793155187</v>
+        <v>25.42862793155182</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,13 +27980,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>93.29116482235996</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8191502244401</v>
+        <v>16.3960221980123</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28014,22 +28014,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4333581046933</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.3785035421428</v>
+        <v>148.3785035421427</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6085557685652</v>
+        <v>108.6085557685651</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2570757305867</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8715076418046</v>
+        <v>143.4427288587113</v>
       </c>
       <c r="T10" t="n">
-        <v>221.290298616738</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>144.1986157764308</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28381,10 +28381,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="V14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
     </row>
     <row r="18">
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29983,13 +29983,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1.478997154632013e-12</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30229,13 +30229,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -31282,7 +31282,7 @@
         <v>30.87735666625586</v>
       </c>
       <c r="I5" t="n">
-        <v>116.2357420115542</v>
+        <v>116.2357420115543</v>
       </c>
       <c r="J5" t="n">
         <v>255.8942561066896</v>
@@ -31361,7 +31361,7 @@
         <v>15.57979307743149</v>
       </c>
       <c r="I6" t="n">
-        <v>55.54104253307773</v>
+        <v>55.54104253307774</v>
       </c>
       <c r="J6" t="n">
         <v>152.4088658859908</v>
@@ -31394,7 +31394,7 @@
         <v>29.96386179969223</v>
       </c>
       <c r="T6" t="n">
-        <v>6.502193386993428</v>
+        <v>6.502193386993429</v>
       </c>
       <c r="U6" t="n">
         <v>0.1061293806364543</v>
@@ -31467,13 +31467,13 @@
         <v>113.2471244311391</v>
       </c>
       <c r="R7" t="n">
-        <v>60.80993132519963</v>
+        <v>60.80993132519964</v>
       </c>
       <c r="S7" t="n">
-        <v>23.56907366567078</v>
+        <v>23.56907366567079</v>
       </c>
       <c r="T7" t="n">
-        <v>5.778541795965189</v>
+        <v>5.77854179596519</v>
       </c>
       <c r="U7" t="n">
         <v>0.07376861867189614</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.472449391674548</v>
+        <v>3.472449391674551</v>
       </c>
       <c r="H8" t="n">
-        <v>35.56222233248697</v>
+        <v>35.562222332487</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8716051725331</v>
+        <v>133.8716051725333</v>
       </c>
       <c r="J8" t="n">
-        <v>294.7198015566379</v>
+        <v>294.7198015566382</v>
       </c>
       <c r="K8" t="n">
-        <v>441.7085843062216</v>
+        <v>441.708584306222</v>
       </c>
       <c r="L8" t="n">
-        <v>547.9785573766817</v>
+        <v>547.9785573766821</v>
       </c>
       <c r="M8" t="n">
-        <v>609.7317292458739</v>
+        <v>609.7317292458745</v>
       </c>
       <c r="N8" t="n">
-        <v>619.5978260799692</v>
+        <v>619.5978260799698</v>
       </c>
       <c r="O8" t="n">
-        <v>585.0686574415054</v>
+        <v>585.0686574415059</v>
       </c>
       <c r="P8" t="n">
-        <v>499.34256308454</v>
+        <v>499.3425630845404</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9854692451951</v>
+        <v>374.9854692451954</v>
       </c>
       <c r="R8" t="n">
-        <v>218.1262490997765</v>
+        <v>218.1262490997767</v>
       </c>
       <c r="S8" t="n">
-        <v>79.12844051278384</v>
+        <v>79.12844051278391</v>
       </c>
       <c r="T8" t="n">
-        <v>15.20064721205534</v>
+        <v>15.20064721205535</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777959513339638</v>
+        <v>0.277795951333964</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857924219328511</v>
+        <v>1.857924219328512</v>
       </c>
       <c r="H9" t="n">
-        <v>17.9436365393043</v>
+        <v>17.94363653930432</v>
       </c>
       <c r="I9" t="n">
-        <v>63.9680049198632</v>
+        <v>63.96800491986326</v>
       </c>
       <c r="J9" t="n">
-        <v>175.533094774366</v>
+        <v>175.5330947743662</v>
       </c>
       <c r="K9" t="n">
-        <v>300.0140174693763</v>
+        <v>300.0140174693765</v>
       </c>
       <c r="L9" t="n">
-        <v>403.4058705169207</v>
+        <v>403.4058705169211</v>
       </c>
       <c r="M9" t="n">
-        <v>470.7556234675791</v>
+        <v>470.7556234675796</v>
       </c>
       <c r="N9" t="n">
-        <v>483.2151240436901</v>
+        <v>483.2151240436906</v>
       </c>
       <c r="O9" t="n">
-        <v>442.0474347627795</v>
+        <v>442.0474347627799</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7820379873891</v>
+        <v>354.7820379873894</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1623968391973</v>
+        <v>237.1623968391975</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3542774070807</v>
+        <v>115.3542774070808</v>
       </c>
       <c r="S9" t="n">
-        <v>34.5101274949835</v>
+        <v>34.51012749498353</v>
       </c>
       <c r="T9" t="n">
-        <v>7.4887384103636</v>
+        <v>7.488738410363606</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222318565347705</v>
+        <v>0.1222318565347706</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.55762125376549</v>
+        <v>1.557621253765491</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84866896529682</v>
+        <v>13.84866896529683</v>
       </c>
       <c r="I10" t="n">
-        <v>46.84191915869311</v>
+        <v>46.84191915869315</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1238226412201</v>
+        <v>110.1238226412202</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9672693011178</v>
+        <v>180.9672693011179</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5757998552802</v>
+        <v>231.5757998552804</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1642116243485</v>
+        <v>244.1642116243487</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3585324057682</v>
+        <v>238.3585324057685</v>
       </c>
       <c r="O10" t="n">
-        <v>220.162684123144</v>
+        <v>220.1626841231442</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3872105463279</v>
+        <v>188.387210546328</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4295397130357</v>
+        <v>130.4295397130358</v>
       </c>
       <c r="R10" t="n">
-        <v>70.03631564658282</v>
+        <v>70.03631564658289</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14509039516766</v>
+        <v>27.14509039516768</v>
       </c>
       <c r="T10" t="n">
-        <v>6.655290811543455</v>
+        <v>6.655290811543461</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08496115929629953</v>
+        <v>0.08496115929629962</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,28 +31835,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,25 +32075,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209201</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,10 +32102,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,37 +32312,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>533.6019216798003</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>247.3820194983592</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M21" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,46 +32622,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33020,28 +33020,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>351.5042614518788</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817563</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>569.57231719539</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>169.6252075171348</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>28.45844197068243</v>
+        <v>92.63945645062405</v>
       </c>
       <c r="L4" t="n">
         <v>174.6339172880153</v>
@@ -34866,13 +34866,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663201</v>
+        <v>169.4872848053138</v>
       </c>
       <c r="O4" t="n">
-        <v>164.382023673283</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>116.8989542469473</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>151.6622745597329</v>
+        <v>25.57123921932407</v>
       </c>
       <c r="K6" t="n">
-        <v>122.6495881517968</v>
+        <v>387.1148251643754</v>
       </c>
       <c r="L6" t="n">
-        <v>211.707952780637</v>
+        <v>220.6936095250682</v>
       </c>
       <c r="M6" t="n">
-        <v>266.6055873691791</v>
+        <v>266.605587369179</v>
       </c>
       <c r="N6" t="n">
-        <v>288.2160307407401</v>
+        <v>288.2160307407402</v>
       </c>
       <c r="O6" t="n">
-        <v>388.5769813978721</v>
+        <v>241.2171229812712</v>
       </c>
       <c r="P6" t="n">
         <v>174.0696575289995</v>
       </c>
       <c r="Q6" t="n">
-        <v>65.93752551686947</v>
+        <v>65.9375255168695</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6738970299516</v>
+        <v>113.6738970299519</v>
       </c>
       <c r="K8" t="n">
-        <v>221.6187332612411</v>
+        <v>221.6187332612415</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2121424066945</v>
+        <v>312.2121424066949</v>
       </c>
       <c r="M8" t="n">
-        <v>379.3854960186012</v>
+        <v>379.3854960186018</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1847624833783</v>
+        <v>390.1847624833788</v>
       </c>
       <c r="O8" t="n">
-        <v>354.9704460198186</v>
+        <v>354.9704460198192</v>
       </c>
       <c r="P8" t="n">
-        <v>268.1095673292704</v>
+        <v>268.1095673292709</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6797793707456</v>
+        <v>152.6797793707459</v>
       </c>
       <c r="R8" t="n">
-        <v>2.540711285644363</v>
+        <v>2.540711285644591</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.69546810769933</v>
+        <v>48.6954681076995</v>
       </c>
       <c r="K9" t="n">
-        <v>426.6378155075959</v>
+        <v>162.1725784950175</v>
       </c>
       <c r="L9" t="n">
-        <v>264.8514907370466</v>
+        <v>554.4443315952285</v>
       </c>
       <c r="M9" t="n">
-        <v>328.6215895455608</v>
+        <v>328.6215895455613</v>
       </c>
       <c r="N9" t="n">
-        <v>351.8734119603569</v>
+        <v>468.8056805628341</v>
       </c>
       <c r="O9" t="n">
-        <v>299.451190318335</v>
+        <v>299.4511903183354</v>
       </c>
       <c r="P9" t="n">
-        <v>378.0639462755762</v>
+        <v>220.8076305730592</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.18062275317575</v>
+        <v>97.18062275317598</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>15.19644325443771</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.76464252454734</v>
+        <v>16.76464252454744</v>
       </c>
       <c r="K10" t="n">
-        <v>158.6977774752349</v>
+        <v>158.6977774752351</v>
       </c>
       <c r="L10" t="n">
-        <v>259.1658251155964</v>
+        <v>259.1658251155966</v>
       </c>
       <c r="M10" t="n">
-        <v>283.7480885861891</v>
+        <v>283.7480885861893</v>
       </c>
       <c r="N10" t="n">
-        <v>282.4907047849969</v>
+        <v>282.4907047849971</v>
       </c>
       <c r="O10" t="n">
-        <v>244.7478120371837</v>
+        <v>244.7478120371839</v>
       </c>
       <c r="P10" t="n">
-        <v>185.6657698112214</v>
+        <v>185.6657698112215</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.26749646134131</v>
+        <v>44.26749646134142</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,28 +35483,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410459</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>395.0475418999261</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>120.5443928316925</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>208.9080170074344</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367757</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>426.9760727509455</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>23.94570355317081</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
